--- a/public/files/resume_insert_template.xlsx
+++ b/public/files/resume_insert_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f8a9c220585c1e2/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SINAU\designyeuh-web\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{8EC31E38-0FB0-4F80-8867-2A1DD000B376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81C4D34F-5033-4965-B1BA-CD64378F3942}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513B2B5C-FB16-4F0B-9FC5-57B3E7E48533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{25E1AAA0-BA6B-40EB-BEE7-24E92C59A128}"/>
   </bookViews>
@@ -36,16 +36,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Downloaded</t>
-  </si>
-  <si>
     <t>Author</t>
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>Download Link</t>
   </si>
 </sst>
 </file>
@@ -106,27 +106,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,39 +449,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A576916-296E-4A45-9967-1526040FC49F}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="22.90625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.6328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" style="7" hidden="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1" hidden="1"/>
+    <col min="1" max="1" width="8.7265625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="28.81640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="31.26953125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" style="1" hidden="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6"/>
+      <c r="E1" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/files/resume_insert_template.xlsx
+++ b/public/files/resume_insert_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SINAU\designyeuh-web\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513B2B5C-FB16-4F0B-9FC5-57B3E7E48533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52C56C0-D197-4F98-9E00-E51C4D00720A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{25E1AAA0-BA6B-40EB-BEE7-24E92C59A128}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -463,7 +463,7 @@
     <col min="3" max="3" width="31.26953125" style="7" customWidth="1"/>
     <col min="4" max="4" width="18.6328125" style="7" customWidth="1"/>
     <col min="5" max="5" width="20.54296875" style="3" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" style="1" hidden="1"/>
+    <col min="6" max="6" width="20.54296875" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="16384" width="8.7265625" style="1" hidden="1"/>
   </cols>
   <sheetData>
